--- a/Calendário.xlsx
+++ b/Calendário.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E13DC14-4B34-49D4-A677-E825AA3006D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8220"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Calendário" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,5497 +405,5497 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A1097"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>42370</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>42371</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>42372</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>42373</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>42374</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>42375</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>42376</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>42377</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>42378</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>42379</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>42380</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>42381</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>42382</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>42383</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>42384</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>42385</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>42386</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>42387</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>42388</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>42389</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>42390</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>42391</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>42392</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>42393</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>42394</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>42395</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>42396</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>42397</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>42398</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>42399</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>42400</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>42401</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>42402</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>42403</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>42404</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>42405</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>42406</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>42407</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>42408</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>42409</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>42410</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42411</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>42412</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>42413</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>42414</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>42415</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>42416</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>42417</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>42418</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>42419</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>42420</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>42421</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>42422</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>42423</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>42424</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>42425</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>42426</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>42427</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>42428</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>42429</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>42430</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>42431</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>42432</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>42433</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>42434</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>42435</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>42436</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>42437</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>42438</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>42439</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>42440</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>42441</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>42442</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>42443</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>42444</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>42445</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>42446</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>42447</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>42448</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>42449</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>42450</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>42451</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>42452</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>42453</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>42454</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>42455</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>42456</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>42457</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>42458</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>42459</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>42460</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>42461</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>42462</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>42463</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>42464</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>42465</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>42466</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>42467</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>42468</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>42469</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>42470</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>42471</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>42472</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>42473</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>42474</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>42475</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>42476</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>42477</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>42478</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>42479</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>42480</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>42481</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>42482</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>42483</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>42484</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>42485</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>42486</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>42487</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>42488</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>42489</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>42490</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>42491</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>42492</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>42493</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>42494</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>42495</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>42496</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>42497</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>42498</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>42499</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>42500</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>42501</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>42502</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>42503</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>42504</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>42505</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>42506</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>42507</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>42508</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>42509</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>42510</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>42511</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>42512</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>42513</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>42514</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>42515</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>42516</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>42517</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>42518</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>42519</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>42520</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>42521</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>42522</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>42523</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>42524</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>42525</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>42526</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>42527</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>42528</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>42529</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>42530</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>42531</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>42532</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>42533</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>42534</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>42535</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>42536</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>42537</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>42538</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>42539</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>42540</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>42541</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>42542</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>42543</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>42544</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>42545</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>42546</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>42547</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>42548</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>42549</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>42550</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>42551</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>42552</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>42553</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>42554</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>42555</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>42556</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>42557</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>42558</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>42559</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>42560</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>42561</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>42562</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>42563</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>42564</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>42565</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>42566</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>42567</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>42568</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>42569</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>42570</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>42571</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>42572</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>42573</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>42574</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>42575</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>42576</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>42577</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>42578</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>42579</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>42580</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>42581</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>42582</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>42583</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>42584</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>42585</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>42586</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>42587</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>42588</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>42589</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>42590</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>42591</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>42592</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>42593</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>42594</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>42595</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>42596</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>42597</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>42598</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>42599</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>42600</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>42601</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>42602</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>42603</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>42604</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>42605</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>42606</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>42607</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>42608</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>42609</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>42610</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>42611</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>42612</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>42613</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>42614</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>42615</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>42616</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>42617</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>42618</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>42619</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>42620</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>42621</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
         <v>42622</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>42623</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
         <v>42624</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>42625</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
         <v>42626</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>42627</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
         <v>42628</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>42629</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
         <v>42630</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>42631</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
         <v>42632</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>42633</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
         <v>42634</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>42635</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
         <v>42636</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>42637</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
         <v>42638</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>42639</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272" s="4">
         <v>42640</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>42641</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274" s="4">
         <v>42642</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>42643</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276" s="4">
         <v>42644</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>42645</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278" s="4">
         <v>42646</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>42647</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280" s="4">
         <v>42648</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>42649</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282" s="4">
         <v>42650</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>42651</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284" s="4">
         <v>42652</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>42653</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286" s="4">
         <v>42654</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>42655</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
         <v>42656</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>42657</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
         <v>42658</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>42659</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
         <v>42660</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>42661</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
         <v>42662</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>42663</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
         <v>42664</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>42665</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
         <v>42666</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>42667</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
         <v>42668</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>42669</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302" s="4">
         <v>42670</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>42671</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304" s="4">
         <v>42672</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>42673</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" s="4">
         <v>42674</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>42675</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" s="4">
         <v>42676</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>42677</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" s="4">
         <v>42678</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>42679</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" s="4">
         <v>42680</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>42681</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" s="4">
         <v>42682</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>42683</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" s="4">
         <v>42684</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>42685</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
         <v>42686</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>42687</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
         <v>42688</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" s="3">
         <v>42689</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
         <v>42690</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" s="3">
         <v>42691</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
         <v>42692</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" s="3">
         <v>42693</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>42694</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" s="3">
         <v>42695</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
         <v>42696</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" s="3">
         <v>42697</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>42698</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" s="3">
         <v>42699</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
         <v>42700</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" s="3">
         <v>42701</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
         <v>42702</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" s="3">
         <v>42703</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
         <v>42704</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" s="3">
         <v>42705</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
         <v>42706</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" s="3">
         <v>42707</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" s="4">
         <v>42708</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" s="3">
         <v>42709</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" s="4">
         <v>42710</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" s="3">
         <v>42711</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" s="4">
         <v>42712</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" s="3">
         <v>42713</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" s="4">
         <v>42714</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" s="3">
         <v>42715</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
         <v>42716</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" s="3">
         <v>42717</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
         <v>42718</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" s="3">
         <v>42719</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
         <v>42720</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353" s="3">
         <v>42721</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
         <v>42722</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355" s="3">
         <v>42723</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
         <v>42724</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357" s="3">
         <v>42725</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
         <v>42726</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359" s="3">
         <v>42727</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
         <v>42728</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361" s="3">
         <v>42729</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362" s="4">
         <v>42730</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363" s="3">
         <v>42731</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364" s="4">
         <v>42732</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365" s="3">
         <v>42733</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366" s="4">
         <v>42734</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367" s="3">
         <v>42735</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368" s="4">
         <v>42736</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369" s="3">
         <v>42737</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370" s="4">
         <v>42738</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371" s="3">
         <v>42739</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372" s="4">
         <v>42740</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" s="3">
         <v>42741</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" s="4">
         <v>42742</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" s="3">
         <v>42743</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" s="4">
         <v>42744</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" s="3">
         <v>42745</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" s="4">
         <v>42746</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379" s="3">
         <v>42747</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
         <v>42748</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381" s="3">
         <v>42749</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382" s="4">
         <v>42750</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383" s="3">
         <v>42751</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384" s="4">
         <v>42752</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385" s="3">
         <v>42753</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386" s="4">
         <v>42754</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387" s="3">
         <v>42755</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
         <v>42756</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389" s="3">
         <v>42757</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
         <v>42758</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391" s="3">
         <v>42759</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392" s="4">
         <v>42760</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393" s="3">
         <v>42761</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394" s="4">
         <v>42762</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395" s="3">
         <v>42763</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" s="4">
         <v>42764</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" s="3">
         <v>42765</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398" s="4">
         <v>42766</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399" s="3">
         <v>42767</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400" s="4">
         <v>42768</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401" s="3">
         <v>42769</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402" s="4">
         <v>42770</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403" s="3">
         <v>42771</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404" s="4">
         <v>42772</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405" s="3">
         <v>42773</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406" s="4">
         <v>42774</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407" s="3">
         <v>42775</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
         <v>42776</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409" s="3">
         <v>42777</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
         <v>42778</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411" s="3">
         <v>42779</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
         <v>42780</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413" s="3">
         <v>42781</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
         <v>42782</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415" s="3">
         <v>42783</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
         <v>42784</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417" s="3">
         <v>42785</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
         <v>42786</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419" s="3">
         <v>42787</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
         <v>42788</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421" s="3">
         <v>42789</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422" s="4">
         <v>42790</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423" s="3">
         <v>42791</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424" s="4">
         <v>42792</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425" s="3">
         <v>42793</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426" s="4">
         <v>42794</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427" s="3">
         <v>42795</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428" s="4">
         <v>42796</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429" s="3">
         <v>42797</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430" s="4">
         <v>42798</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431" s="3">
         <v>42799</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432" s="4">
         <v>42800</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433" s="3">
         <v>42801</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434" s="4">
         <v>42802</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435" s="3">
         <v>42803</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436" s="4">
         <v>42804</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437" s="3">
         <v>42805</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
         <v>42806</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439" s="3">
         <v>42807</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
         <v>42808</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441" s="3">
         <v>42809</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
         <v>42810</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443" s="3">
         <v>42811</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
         <v>42812</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445" s="3">
         <v>42813</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
         <v>42814</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447" s="3">
         <v>42815</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
         <v>42816</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449" s="3">
         <v>42817</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
         <v>42818</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451" s="3">
         <v>42819</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452" s="4">
         <v>42820</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453" s="3">
         <v>42821</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454" s="4">
         <v>42822</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455" s="3">
         <v>42823</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456" s="4">
         <v>42824</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457" s="3">
         <v>42825</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458" s="4">
         <v>42826</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459" s="3">
         <v>42827</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460" s="4">
         <v>42828</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461" s="3">
         <v>42829</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462" s="4">
         <v>42830</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463" s="3">
         <v>42831</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464" s="4">
         <v>42832</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465" s="3">
         <v>42833</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466" s="4">
         <v>42834</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467" s="3">
         <v>42835</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
         <v>42836</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469" s="3">
         <v>42837</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
         <v>42838</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471" s="3">
         <v>42839</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
         <v>42840</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473" s="3">
         <v>42841</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
         <v>42842</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475" s="3">
         <v>42843</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
         <v>42844</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477" s="3">
         <v>42845</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
         <v>42846</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479" s="3">
         <v>42847</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
         <v>42848</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481" s="3">
         <v>42849</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482" s="4">
         <v>42850</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483" s="3">
         <v>42851</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484" s="4">
         <v>42852</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485" s="3">
         <v>42853</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486" s="4">
         <v>42854</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487" s="3">
         <v>42855</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488" s="4">
         <v>42856</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489" s="3">
         <v>42857</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490" s="4">
         <v>42858</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491" s="3">
         <v>42859</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492" s="4">
         <v>42860</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493" s="3">
         <v>42861</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494" s="4">
         <v>42862</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495" s="3">
         <v>42863</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496" s="4">
         <v>42864</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497" s="3">
         <v>42865</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498" s="4">
         <v>42866</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499" s="3">
         <v>42867</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500" s="4">
         <v>42868</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501" s="3">
         <v>42869</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502" s="4">
         <v>42870</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503" s="3">
         <v>42871</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504" s="4">
         <v>42872</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505" s="3">
         <v>42873</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506" s="4">
         <v>42874</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507" s="3">
         <v>42875</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508" s="4">
         <v>42876</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509" s="3">
         <v>42877</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510" s="4">
         <v>42878</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511" s="3">
         <v>42879</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512" s="4">
         <v>42880</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513" s="3">
         <v>42881</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514" s="4">
         <v>42882</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515" s="3">
         <v>42883</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516" s="4">
         <v>42884</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517" s="3">
         <v>42885</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518" s="4">
         <v>42886</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519" s="3">
         <v>42887</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520" s="4">
         <v>42888</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521" s="3">
         <v>42889</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522" s="4">
         <v>42890</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523" s="3">
         <v>42891</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524" s="4">
         <v>42892</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525" s="3">
         <v>42893</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526" s="4">
         <v>42894</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527" s="3">
         <v>42895</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528" s="4">
         <v>42896</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529" s="3">
         <v>42897</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530" s="4">
         <v>42898</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531" s="3">
         <v>42899</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532" s="4">
         <v>42900</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533" s="3">
         <v>42901</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534" s="4">
         <v>42902</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535" s="3">
         <v>42903</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536" s="4">
         <v>42904</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537" s="3">
         <v>42905</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538" s="4">
         <v>42906</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539" s="3">
         <v>42907</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540" s="4">
         <v>42908</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541" s="3">
         <v>42909</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542" s="4">
         <v>42910</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543" s="3">
         <v>42911</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544" s="4">
         <v>42912</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545" s="3">
         <v>42913</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546" s="4">
         <v>42914</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547" s="3">
         <v>42915</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548" s="4">
         <v>42916</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549" s="3">
         <v>42917</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550" s="4">
         <v>42918</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551" s="3">
         <v>42919</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552" s="4">
         <v>42920</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553" s="3">
         <v>42921</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554" s="4">
         <v>42922</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555" s="3">
         <v>42923</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556" s="4">
         <v>42924</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557" s="3">
         <v>42925</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558" s="4">
         <v>42926</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559" s="3">
         <v>42927</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560" s="4">
         <v>42928</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A561" s="3">
         <v>42929</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A562" s="4">
         <v>42930</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A563" s="3">
         <v>42931</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564" s="4">
         <v>42932</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A565" s="3">
         <v>42933</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A566" s="4">
         <v>42934</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A567" s="3">
         <v>42935</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A568" s="4">
         <v>42936</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A569" s="3">
         <v>42937</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A570" s="4">
         <v>42938</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A571" s="3">
         <v>42939</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A572" s="4">
         <v>42940</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A573" s="3">
         <v>42941</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A574" s="4">
         <v>42942</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A575" s="3">
         <v>42943</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A576" s="4">
         <v>42944</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A577" s="3">
         <v>42945</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A578" s="4">
         <v>42946</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A579" s="3">
         <v>42947</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A580" s="4">
         <v>42948</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A581" s="3">
         <v>42949</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A582" s="4">
         <v>42950</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A583" s="3">
         <v>42951</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A584" s="4">
         <v>42952</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A585" s="3">
         <v>42953</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A586" s="4">
         <v>42954</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A587" s="3">
         <v>42955</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A588" s="4">
         <v>42956</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A589" s="3">
         <v>42957</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A590" s="4">
         <v>42958</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A591" s="3">
         <v>42959</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A592" s="4">
         <v>42960</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A593" s="3">
         <v>42961</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A594" s="4">
         <v>42962</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A595" s="3">
         <v>42963</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A596" s="4">
         <v>42964</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A597" s="3">
         <v>42965</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A598" s="4">
         <v>42966</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A599" s="3">
         <v>42967</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A600" s="4">
         <v>42968</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A601" s="3">
         <v>42969</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A602" s="4">
         <v>42970</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A603" s="3">
         <v>42971</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A604" s="4">
         <v>42972</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A605" s="3">
         <v>42973</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A606" s="4">
         <v>42974</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A607" s="3">
         <v>42975</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A608" s="4">
         <v>42976</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A609" s="3">
         <v>42977</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A610" s="4">
         <v>42978</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A611" s="3">
         <v>42979</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A612" s="4">
         <v>42980</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A613" s="3">
         <v>42981</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A614" s="4">
         <v>42982</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A615" s="3">
         <v>42983</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A616" s="4">
         <v>42984</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A617" s="3">
         <v>42985</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A618" s="4">
         <v>42986</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A619" s="3">
         <v>42987</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A620" s="4">
         <v>42988</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A621" s="3">
         <v>42989</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A622" s="4">
         <v>42990</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A623" s="3">
         <v>42991</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A624" s="4">
         <v>42992</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A625" s="3">
         <v>42993</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A626" s="4">
         <v>42994</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A627" s="3">
         <v>42995</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A628" s="4">
         <v>42996</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A629" s="3">
         <v>42997</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A630" s="4">
         <v>42998</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A631" s="3">
         <v>42999</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A632" s="4">
         <v>43000</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A633" s="3">
         <v>43001</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A634" s="4">
         <v>43002</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A635" s="3">
         <v>43003</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A636" s="4">
         <v>43004</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A637" s="3">
         <v>43005</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A638" s="4">
         <v>43006</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A639" s="3">
         <v>43007</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A640" s="4">
         <v>43008</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A641" s="3">
         <v>43009</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A642" s="4">
         <v>43010</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A643" s="3">
         <v>43011</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A644" s="4">
         <v>43012</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A645" s="3">
         <v>43013</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A646" s="4">
         <v>43014</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A647" s="3">
         <v>43015</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A648" s="4">
         <v>43016</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A649" s="3">
         <v>43017</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A650" s="4">
         <v>43018</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A651" s="3">
         <v>43019</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A652" s="4">
         <v>43020</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A653" s="3">
         <v>43021</v>
       </c>
     </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A654" s="4">
         <v>43022</v>
       </c>
     </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A655" s="3">
         <v>43023</v>
       </c>
     </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A656" s="4">
         <v>43024</v>
       </c>
     </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A657" s="3">
         <v>43025</v>
       </c>
     </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A658" s="4">
         <v>43026</v>
       </c>
     </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A659" s="3">
         <v>43027</v>
       </c>
     </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A660" s="4">
         <v>43028</v>
       </c>
     </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A661" s="3">
         <v>43029</v>
       </c>
     </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A662" s="4">
         <v>43030</v>
       </c>
     </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A663" s="3">
         <v>43031</v>
       </c>
     </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A664" s="4">
         <v>43032</v>
       </c>
     </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A665" s="3">
         <v>43033</v>
       </c>
     </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A666" s="4">
         <v>43034</v>
       </c>
     </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A667" s="3">
         <v>43035</v>
       </c>
     </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A668" s="4">
         <v>43036</v>
       </c>
     </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A669" s="3">
         <v>43037</v>
       </c>
     </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A670" s="4">
         <v>43038</v>
       </c>
     </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A671" s="3">
         <v>43039</v>
       </c>
     </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A672" s="4">
         <v>43040</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A673" s="3">
         <v>43041</v>
       </c>
     </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A674" s="4">
         <v>43042</v>
       </c>
     </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A675" s="3">
         <v>43043</v>
       </c>
     </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A676" s="4">
         <v>43044</v>
       </c>
     </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A677" s="3">
         <v>43045</v>
       </c>
     </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A678" s="4">
         <v>43046</v>
       </c>
     </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A679" s="3">
         <v>43047</v>
       </c>
     </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A680" s="4">
         <v>43048</v>
       </c>
     </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A681" s="3">
         <v>43049</v>
       </c>
     </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A682" s="4">
         <v>43050</v>
       </c>
     </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A683" s="3">
         <v>43051</v>
       </c>
     </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A684" s="4">
         <v>43052</v>
       </c>
     </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A685" s="3">
         <v>43053</v>
       </c>
     </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A686" s="4">
         <v>43054</v>
       </c>
     </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A687" s="3">
         <v>43055</v>
       </c>
     </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A688" s="4">
         <v>43056</v>
       </c>
     </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A689" s="3">
         <v>43057</v>
       </c>
     </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A690" s="4">
         <v>43058</v>
       </c>
     </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A691" s="3">
         <v>43059</v>
       </c>
     </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A692" s="4">
         <v>43060</v>
       </c>
     </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A693" s="3">
         <v>43061</v>
       </c>
     </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A694" s="4">
         <v>43062</v>
       </c>
     </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A695" s="3">
         <v>43063</v>
       </c>
     </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A696" s="4">
         <v>43064</v>
       </c>
     </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A697" s="3">
         <v>43065</v>
       </c>
     </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A698" s="4">
         <v>43066</v>
       </c>
     </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A699" s="3">
         <v>43067</v>
       </c>
     </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A700" s="4">
         <v>43068</v>
       </c>
     </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A701" s="3">
         <v>43069</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A702" s="4">
         <v>43070</v>
       </c>
     </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A703" s="3">
         <v>43071</v>
       </c>
     </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A704" s="4">
         <v>43072</v>
       </c>
     </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A705" s="3">
         <v>43073</v>
       </c>
     </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A706" s="4">
         <v>43074</v>
       </c>
     </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A707" s="3">
         <v>43075</v>
       </c>
     </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A708" s="4">
         <v>43076</v>
       </c>
     </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A709" s="3">
         <v>43077</v>
       </c>
     </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A710" s="4">
         <v>43078</v>
       </c>
     </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A711" s="3">
         <v>43079</v>
       </c>
     </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A712" s="4">
         <v>43080</v>
       </c>
     </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A713" s="3">
         <v>43081</v>
       </c>
     </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A714" s="4">
         <v>43082</v>
       </c>
     </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A715" s="3">
         <v>43083</v>
       </c>
     </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A716" s="4">
         <v>43084</v>
       </c>
     </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A717" s="3">
         <v>43085</v>
       </c>
     </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A718" s="4">
         <v>43086</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A719" s="3">
         <v>43087</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A720" s="4">
         <v>43088</v>
       </c>
     </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A721" s="3">
         <v>43089</v>
       </c>
     </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A722" s="4">
         <v>43090</v>
       </c>
     </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A723" s="3">
         <v>43091</v>
       </c>
     </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A724" s="4">
         <v>43092</v>
       </c>
     </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A725" s="3">
         <v>43093</v>
       </c>
     </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A726" s="4">
         <v>43094</v>
       </c>
     </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A727" s="3">
         <v>43095</v>
       </c>
     </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A728" s="4">
         <v>43096</v>
       </c>
     </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A729" s="3">
         <v>43097</v>
       </c>
     </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A730" s="4">
         <v>43098</v>
       </c>
     </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A731" s="3">
         <v>43099</v>
       </c>
     </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A732" s="4">
         <v>43100</v>
       </c>
     </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A733" s="3">
         <v>43101</v>
       </c>
     </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A734" s="4">
         <v>43102</v>
       </c>
     </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A735" s="3">
         <v>43103</v>
       </c>
     </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A736" s="4">
         <v>43104</v>
       </c>
     </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A737" s="3">
         <v>43105</v>
       </c>
     </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A738" s="4">
         <v>43106</v>
       </c>
     </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A739" s="3">
         <v>43107</v>
       </c>
     </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A740" s="4">
         <v>43108</v>
       </c>
     </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A741" s="3">
         <v>43109</v>
       </c>
     </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A742" s="4">
         <v>43110</v>
       </c>
     </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A743" s="3">
         <v>43111</v>
       </c>
     </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A744" s="4">
         <v>43112</v>
       </c>
     </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A745" s="3">
         <v>43113</v>
       </c>
     </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A746" s="4">
         <v>43114</v>
       </c>
     </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A747" s="3">
         <v>43115</v>
       </c>
     </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A748" s="4">
         <v>43116</v>
       </c>
     </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A749" s="3">
         <v>43117</v>
       </c>
     </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A750" s="4">
         <v>43118</v>
       </c>
     </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A751" s="3">
         <v>43119</v>
       </c>
     </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A752" s="4">
         <v>43120</v>
       </c>
     </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A753" s="3">
         <v>43121</v>
       </c>
     </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A754" s="4">
         <v>43122</v>
       </c>
     </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A755" s="3">
         <v>43123</v>
       </c>
     </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A756" s="4">
         <v>43124</v>
       </c>
     </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A757" s="3">
         <v>43125</v>
       </c>
     </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A758" s="4">
         <v>43126</v>
       </c>
     </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A759" s="3">
         <v>43127</v>
       </c>
     </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A760" s="4">
         <v>43128</v>
       </c>
     </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A761" s="3">
         <v>43129</v>
       </c>
     </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A762" s="4">
         <v>43130</v>
       </c>
     </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A763" s="3">
         <v>43131</v>
       </c>
     </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A764" s="4">
         <v>43132</v>
       </c>
     </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A765" s="3">
         <v>43133</v>
       </c>
     </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A766" s="4">
         <v>43134</v>
       </c>
     </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A767" s="3">
         <v>43135</v>
       </c>
     </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A768" s="4">
         <v>43136</v>
       </c>
     </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A769" s="3">
         <v>43137</v>
       </c>
     </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A770" s="4">
         <v>43138</v>
       </c>
     </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A771" s="3">
         <v>43139</v>
       </c>
     </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A772" s="4">
         <v>43140</v>
       </c>
     </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A773" s="3">
         <v>43141</v>
       </c>
     </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A774" s="4">
         <v>43142</v>
       </c>
     </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A775" s="3">
         <v>43143</v>
       </c>
     </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A776" s="4">
         <v>43144</v>
       </c>
     </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A777" s="3">
         <v>43145</v>
       </c>
     </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A778" s="4">
         <v>43146</v>
       </c>
     </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A779" s="3">
         <v>43147</v>
       </c>
     </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A780" s="4">
         <v>43148</v>
       </c>
     </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A781" s="3">
         <v>43149</v>
       </c>
     </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A782" s="4">
         <v>43150</v>
       </c>
     </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A783" s="3">
         <v>43151</v>
       </c>
     </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A784" s="4">
         <v>43152</v>
       </c>
     </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A785" s="3">
         <v>43153</v>
       </c>
     </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A786" s="4">
         <v>43154</v>
       </c>
     </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A787" s="3">
         <v>43155</v>
       </c>
     </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A788" s="4">
         <v>43156</v>
       </c>
     </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A789" s="3">
         <v>43157</v>
       </c>
     </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A790" s="4">
         <v>43158</v>
       </c>
     </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A791" s="3">
         <v>43159</v>
       </c>
     </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A792" s="4">
         <v>43160</v>
       </c>
     </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A793" s="3">
         <v>43161</v>
       </c>
     </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A794" s="4">
         <v>43162</v>
       </c>
     </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A795" s="3">
         <v>43163</v>
       </c>
     </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A796" s="4">
         <v>43164</v>
       </c>
     </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A797" s="3">
         <v>43165</v>
       </c>
     </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A798" s="4">
         <v>43166</v>
       </c>
     </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A799" s="3">
         <v>43167</v>
       </c>
     </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A800" s="4">
         <v>43168</v>
       </c>
     </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A801" s="3">
         <v>43169</v>
       </c>
     </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A802" s="4">
         <v>43170</v>
       </c>
     </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A803" s="3">
         <v>43171</v>
       </c>
     </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A804" s="4">
         <v>43172</v>
       </c>
     </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A805" s="3">
         <v>43173</v>
       </c>
     </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A806" s="4">
         <v>43174</v>
       </c>
     </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A807" s="3">
         <v>43175</v>
       </c>
     </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A808" s="4">
         <v>43176</v>
       </c>
     </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A809" s="3">
         <v>43177</v>
       </c>
     </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A810" s="4">
         <v>43178</v>
       </c>
     </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A811" s="3">
         <v>43179</v>
       </c>
     </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A812" s="4">
         <v>43180</v>
       </c>
     </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A813" s="3">
         <v>43181</v>
       </c>
     </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A814" s="4">
         <v>43182</v>
       </c>
     </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A815" s="3">
         <v>43183</v>
       </c>
     </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A816" s="4">
         <v>43184</v>
       </c>
     </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A817" s="3">
         <v>43185</v>
       </c>
     </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A818" s="4">
         <v>43186</v>
       </c>
     </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A819" s="3">
         <v>43187</v>
       </c>
     </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A820" s="4">
         <v>43188</v>
       </c>
     </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A821" s="3">
         <v>43189</v>
       </c>
     </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A822" s="4">
         <v>43190</v>
       </c>
     </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A823" s="3">
         <v>43191</v>
       </c>
     </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A824" s="4">
         <v>43192</v>
       </c>
     </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A825" s="3">
         <v>43193</v>
       </c>
     </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A826" s="4">
         <v>43194</v>
       </c>
     </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A827" s="3">
         <v>43195</v>
       </c>
     </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A828" s="4">
         <v>43196</v>
       </c>
     </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A829" s="3">
         <v>43197</v>
       </c>
     </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A830" s="4">
         <v>43198</v>
       </c>
     </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A831" s="3">
         <v>43199</v>
       </c>
     </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A832" s="4">
         <v>43200</v>
       </c>
     </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A833" s="3">
         <v>43201</v>
       </c>
     </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A834" s="4">
         <v>43202</v>
       </c>
     </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A835" s="3">
         <v>43203</v>
       </c>
     </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A836" s="4">
         <v>43204</v>
       </c>
     </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A837" s="3">
         <v>43205</v>
       </c>
     </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A838" s="4">
         <v>43206</v>
       </c>
     </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A839" s="3">
         <v>43207</v>
       </c>
     </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A840" s="4">
         <v>43208</v>
       </c>
     </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A841" s="3">
         <v>43209</v>
       </c>
     </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A842" s="4">
         <v>43210</v>
       </c>
     </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A843" s="3">
         <v>43211</v>
       </c>
     </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A844" s="4">
         <v>43212</v>
       </c>
     </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A845" s="3">
         <v>43213</v>
       </c>
     </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A846" s="4">
         <v>43214</v>
       </c>
     </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A847" s="3">
         <v>43215</v>
       </c>
     </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A848" s="4">
         <v>43216</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A849" s="3">
         <v>43217</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A850" s="4">
         <v>43218</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A851" s="3">
         <v>43219</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A852" s="4">
         <v>43220</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A853" s="3">
         <v>43221</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A854" s="4">
         <v>43222</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A855" s="3">
         <v>43223</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A856" s="4">
         <v>43224</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A857" s="3">
         <v>43225</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A858" s="4">
         <v>43226</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A859" s="3">
         <v>43227</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A860" s="4">
         <v>43228</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A861" s="3">
         <v>43229</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A862" s="4">
         <v>43230</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A863" s="3">
         <v>43231</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A864" s="4">
         <v>43232</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A865" s="3">
         <v>43233</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A866" s="4">
         <v>43234</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A867" s="3">
         <v>43235</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A868" s="4">
         <v>43236</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A869" s="3">
         <v>43237</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A870" s="4">
         <v>43238</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A871" s="3">
         <v>43239</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A872" s="4">
         <v>43240</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A873" s="3">
         <v>43241</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A874" s="4">
         <v>43242</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A875" s="3">
         <v>43243</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A876" s="4">
         <v>43244</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A877" s="3">
         <v>43245</v>
       </c>
     </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A878" s="4">
         <v>43246</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A879" s="3">
         <v>43247</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A880" s="4">
         <v>43248</v>
       </c>
     </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A881" s="3">
         <v>43249</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A882" s="4">
         <v>43250</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A883" s="3">
         <v>43251</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A884" s="4">
         <v>43252</v>
       </c>
     </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A885" s="3">
         <v>43253</v>
       </c>
     </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A886" s="4">
         <v>43254</v>
       </c>
     </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A887" s="3">
         <v>43255</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A888" s="4">
         <v>43256</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A889" s="3">
         <v>43257</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A890" s="4">
         <v>43258</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A891" s="3">
         <v>43259</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A892" s="4">
         <v>43260</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A893" s="3">
         <v>43261</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A894" s="4">
         <v>43262</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A895" s="3">
         <v>43263</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A896" s="4">
         <v>43264</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A897" s="3">
         <v>43265</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A898" s="4">
         <v>43266</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A899" s="3">
         <v>43267</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A900" s="4">
         <v>43268</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A901" s="3">
         <v>43269</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A902" s="4">
         <v>43270</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A903" s="3">
         <v>43271</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A904" s="4">
         <v>43272</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A905" s="3">
         <v>43273</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A906" s="4">
         <v>43274</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A907" s="3">
         <v>43275</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A908" s="4">
         <v>43276</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A909" s="3">
         <v>43277</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A910" s="4">
         <v>43278</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A911" s="3">
         <v>43279</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A912" s="4">
         <v>43280</v>
       </c>
     </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A913" s="3">
         <v>43281</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A914" s="4">
         <v>43282</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A915" s="3">
         <v>43283</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A916" s="4">
         <v>43284</v>
       </c>
     </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A917" s="3">
         <v>43285</v>
       </c>
     </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A918" s="4">
         <v>43286</v>
       </c>
     </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A919" s="3">
         <v>43287</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A920" s="4">
         <v>43288</v>
       </c>
     </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A921" s="3">
         <v>43289</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A922" s="4">
         <v>43290</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A923" s="3">
         <v>43291</v>
       </c>
     </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A924" s="4">
         <v>43292</v>
       </c>
     </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A925" s="3">
         <v>43293</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A926" s="4">
         <v>43294</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A927" s="3">
         <v>43295</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A928" s="4">
         <v>43296</v>
       </c>
     </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A929" s="3">
         <v>43297</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A930" s="4">
         <v>43298</v>
       </c>
     </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A931" s="3">
         <v>43299</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A932" s="4">
         <v>43300</v>
       </c>
     </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A933" s="3">
         <v>43301</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A934" s="4">
         <v>43302</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A935" s="3">
         <v>43303</v>
       </c>
     </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A936" s="4">
         <v>43304</v>
       </c>
     </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A937" s="3">
         <v>43305</v>
       </c>
     </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A938" s="4">
         <v>43306</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A939" s="3">
         <v>43307</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A940" s="4">
         <v>43308</v>
       </c>
     </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A941" s="3">
         <v>43309</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A942" s="4">
         <v>43310</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A943" s="3">
         <v>43311</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A944" s="4">
         <v>43312</v>
       </c>
     </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A945" s="3">
         <v>43313</v>
       </c>
     </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A946" s="4">
         <v>43314</v>
       </c>
     </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A947" s="3">
         <v>43315</v>
       </c>
     </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A948" s="4">
         <v>43316</v>
       </c>
     </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A949" s="3">
         <v>43317</v>
       </c>
     </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A950" s="4">
         <v>43318</v>
       </c>
     </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A951" s="3">
         <v>43319</v>
       </c>
     </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A952" s="4">
         <v>43320</v>
       </c>
     </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A953" s="3">
         <v>43321</v>
       </c>
     </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A954" s="4">
         <v>43322</v>
       </c>
     </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A955" s="3">
         <v>43323</v>
       </c>
     </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A956" s="4">
         <v>43324</v>
       </c>
     </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A957" s="3">
         <v>43325</v>
       </c>
     </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A958" s="4">
         <v>43326</v>
       </c>
     </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A959" s="3">
         <v>43327</v>
       </c>
     </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A960" s="4">
         <v>43328</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A961" s="3">
         <v>43329</v>
       </c>
     </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A962" s="4">
         <v>43330</v>
       </c>
     </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A963" s="3">
         <v>43331</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A964" s="4">
         <v>43332</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A965" s="3">
         <v>43333</v>
       </c>
     </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A966" s="4">
         <v>43334</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A967" s="3">
         <v>43335</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A968" s="4">
         <v>43336</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A969" s="3">
         <v>43337</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A970" s="4">
         <v>43338</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A971" s="3">
         <v>43339</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A972" s="4">
         <v>43340</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A973" s="3">
         <v>43341</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A974" s="4">
         <v>43342</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A975" s="3">
         <v>43343</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A976" s="4">
         <v>43344</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A977" s="3">
         <v>43345</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A978" s="4">
         <v>43346</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A979" s="3">
         <v>43347</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A980" s="4">
         <v>43348</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A981" s="3">
         <v>43349</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A982" s="4">
         <v>43350</v>
       </c>
     </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A983" s="3">
         <v>43351</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A984" s="4">
         <v>43352</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A985" s="3">
         <v>43353</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A986" s="4">
         <v>43354</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A987" s="3">
         <v>43355</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A988" s="4">
         <v>43356</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A989" s="3">
         <v>43357</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A990" s="4">
         <v>43358</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A991" s="3">
         <v>43359</v>
       </c>
     </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A992" s="4">
         <v>43360</v>
       </c>
     </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A993" s="3">
         <v>43361</v>
       </c>
     </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A994" s="4">
         <v>43362</v>
       </c>
     </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A995" s="3">
         <v>43363</v>
       </c>
     </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A996" s="4">
         <v>43364</v>
       </c>
     </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A997" s="3">
         <v>43365</v>
       </c>
     </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A998" s="4">
         <v>43366</v>
       </c>
     </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A999" s="3">
         <v>43367</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1000" s="4">
         <v>43368</v>
       </c>
     </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1001" s="3">
         <v>43369</v>
       </c>
     </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1002" s="4">
         <v>43370</v>
       </c>
     </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1003" s="3">
         <v>43371</v>
       </c>
     </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1004" s="4">
         <v>43372</v>
       </c>
     </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1005" s="3">
         <v>43373</v>
       </c>
     </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1006" s="4">
         <v>43374</v>
       </c>
     </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1007" s="3">
         <v>43375</v>
       </c>
     </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1008" s="4">
         <v>43376</v>
       </c>
     </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1009" s="3">
         <v>43377</v>
       </c>
     </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1010" s="4">
         <v>43378</v>
       </c>
     </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1011" s="3">
         <v>43379</v>
       </c>
     </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1012" s="4">
         <v>43380</v>
       </c>
     </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1013" s="3">
         <v>43381</v>
       </c>
     </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1014" s="4">
         <v>43382</v>
       </c>
     </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1015" s="3">
         <v>43383</v>
       </c>
     </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1016" s="4">
         <v>43384</v>
       </c>
     </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1017" s="3">
         <v>43385</v>
       </c>
     </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1018" s="4">
         <v>43386</v>
       </c>
     </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1019" s="3">
         <v>43387</v>
       </c>
     </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1020" s="4">
         <v>43388</v>
       </c>
     </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1021" s="3">
         <v>43389</v>
       </c>
     </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1022" s="4">
         <v>43390</v>
       </c>
     </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1023" s="3">
         <v>43391</v>
       </c>
     </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1024" s="4">
         <v>43392</v>
       </c>
     </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1025" s="3">
         <v>43393</v>
       </c>
     </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1026" s="4">
         <v>43394</v>
       </c>
     </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1027" s="3">
         <v>43395</v>
       </c>
     </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1028" s="4">
         <v>43396</v>
       </c>
     </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1029" s="3">
         <v>43397</v>
       </c>
     </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1030" s="4">
         <v>43398</v>
       </c>
     </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1031" s="3">
         <v>43399</v>
       </c>
     </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1032" s="4">
         <v>43400</v>
       </c>
     </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1033" s="3">
         <v>43401</v>
       </c>
     </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1034" s="4">
         <v>43402</v>
       </c>
     </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1035" s="3">
         <v>43403</v>
       </c>
     </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1036" s="4">
         <v>43404</v>
       </c>
     </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1037" s="3">
         <v>43405</v>
       </c>
     </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1038" s="4">
         <v>43406</v>
       </c>
     </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1039" s="3">
         <v>43407</v>
       </c>
     </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1040" s="4">
         <v>43408</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1041" s="3">
         <v>43409</v>
       </c>
     </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1042" s="4">
         <v>43410</v>
       </c>
     </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1043" s="3">
         <v>43411</v>
       </c>
     </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1044" s="4">
         <v>43412</v>
       </c>
     </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1045" s="3">
         <v>43413</v>
       </c>
     </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1046" s="4">
         <v>43414</v>
       </c>
     </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1047" s="3">
         <v>43415</v>
       </c>
     </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1048" s="4">
         <v>43416</v>
       </c>
     </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1049" s="3">
         <v>43417</v>
       </c>
     </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1050" s="4">
         <v>43418</v>
       </c>
     </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1051" s="3">
         <v>43419</v>
       </c>
     </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1052" s="4">
         <v>43420</v>
       </c>
     </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1053" s="3">
         <v>43421</v>
       </c>
     </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1054" s="4">
         <v>43422</v>
       </c>
     </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1055" s="3">
         <v>43423</v>
       </c>
     </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1056" s="4">
         <v>43424</v>
       </c>
     </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1057" s="3">
         <v>43425</v>
       </c>
     </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1058" s="4">
         <v>43426</v>
       </c>
     </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1059" s="3">
         <v>43427</v>
       </c>
     </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1060" s="4">
         <v>43428</v>
       </c>
     </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1061" s="3">
         <v>43429</v>
       </c>
     </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1062" s="4">
         <v>43430</v>
       </c>
     </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1063" s="3">
         <v>43431</v>
       </c>
     </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1064" s="4">
         <v>43432</v>
       </c>
     </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1065" s="3">
         <v>43433</v>
       </c>
     </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1066" s="4">
         <v>43434</v>
       </c>
     </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1067" s="3">
         <v>43435</v>
       </c>
     </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1068" s="4">
         <v>43436</v>
       </c>
     </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1069" s="3">
         <v>43437</v>
       </c>
     </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1070" s="4">
         <v>43438</v>
       </c>
     </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1071" s="3">
         <v>43439</v>
       </c>
     </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1072" s="4">
         <v>43440</v>
       </c>
     </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1073" s="3">
         <v>43441</v>
       </c>
     </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1074" s="4">
         <v>43442</v>
       </c>
     </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1075" s="3">
         <v>43443</v>
       </c>
     </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1076" s="4">
         <v>43444</v>
       </c>
     </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1077" s="3">
         <v>43445</v>
       </c>
     </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1078" s="4">
         <v>43446</v>
       </c>
     </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1079" s="3">
         <v>43447</v>
       </c>
     </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1080" s="4">
         <v>43448</v>
       </c>
     </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1081" s="3">
         <v>43449</v>
       </c>
     </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1082" s="4">
         <v>43450</v>
       </c>
     </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1083" s="3">
         <v>43451</v>
       </c>
     </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1084" s="4">
         <v>43452</v>
       </c>
     </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1085" s="3">
         <v>43453</v>
       </c>
     </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1086" s="4">
         <v>43454</v>
       </c>
     </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1087" s="3">
         <v>43455</v>
       </c>
     </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1088" s="4">
         <v>43456</v>
       </c>
     </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1089" s="3">
         <v>43457</v>
       </c>
     </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1090" s="4">
         <v>43458</v>
       </c>
     </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1091" s="3">
         <v>43459</v>
       </c>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1092" s="4">
         <v>43460</v>
       </c>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1093" s="3">
         <v>43461</v>
       </c>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1094" s="4">
         <v>43462</v>
       </c>
     </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1095" s="3">
         <v>43463</v>
       </c>
     </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1096" s="4">
         <v>43464</v>
       </c>
     </row>
-    <row r="1097" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1097" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1097" s="5">
         <v>43465</v>
       </c>
